--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_23_Sept_24\Optum_sept_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_23_Sept_24\Optum_sept_24\Optum-Global_Sept_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF5365-8C52-451B-85BE-73DD68A59654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BDBD9-9873-4AFA-A961-B82044B04218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{ED000148-4945-4158-A68D-019C45D6055E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Optum Global-Advance-Python-23-25-Sep-2024-46475</t>
   </si>
@@ -63,9 +63,6 @@
     <t>46475python4u#01</t>
   </si>
   <si>
-    <t>Vaidehi Nair</t>
-  </si>
-  <si>
     <t>46475python02</t>
   </si>
   <si>
@@ -214,6 +211,63 @@
   </si>
   <si>
     <t>46475python4u#26</t>
+  </si>
+  <si>
+    <t>Rakshita</t>
+  </si>
+  <si>
+    <t>Bharath</t>
+  </si>
+  <si>
+    <t>Dhirishkumar</t>
+  </si>
+  <si>
+    <t>Dilip</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Giri</t>
+  </si>
+  <si>
+    <t>Sparsh</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Mekala</t>
+  </si>
+  <si>
+    <t>Akalya</t>
+  </si>
+  <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t>Bhavani</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>Jyotirvasu</t>
+  </si>
+  <si>
+    <t>Rohitkumar</t>
+  </si>
+  <si>
+    <t>Sirisha</t>
+  </si>
+  <si>
+    <t>Ranjith</t>
+  </si>
+  <si>
+    <t>Sajjeeva</t>
   </si>
 </sst>
 </file>
@@ -415,12 +469,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +522,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,435 +847,471 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="26.53515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.53515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.53515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.53515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="15">
-        <v>26</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_23_Sept_24\Optum_sept_24\Optum-Global_Sept_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BDBD9-9873-4AFA-A961-B82044B04218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44088CB6-0A5D-4225-BCE1-4DFB9DADAAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{ED000148-4945-4158-A68D-019C45D6055E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Optum Global-Advance-Python-23-25-Sep-2024-46475</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Sajjeeva</t>
+  </si>
+  <si>
+    <t>Roopak</t>
   </si>
 </sst>
 </file>
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CE7EF-7F2C-4A30-95A8-79F2DD543B33}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1221,7 +1224,9 @@
       <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
